--- a/SEROFOI/Tabla resumen FOI/VPH18.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4593157-8903-4D41-8252-A97EE9308C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C419F-BB7F-4736-A511-6391C4F5FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A89FB97C-CAE2-47B6-9299-C28EF3FF468C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>País</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Edad FOI máxima</t>
   </si>
   <si>
-    <t>(años)</t>
-  </si>
-  <si>
     <t>Seroreversión</t>
   </si>
   <si>
-    <t>(media)</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -74,13 +68,29 @@
     <t>0.26</t>
   </si>
   <si>
-    <t>FOI maxima</t>
+    <t>FOI_max</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Poblacion_ por_ millon</t>
+  </si>
+  <si>
+    <t>tiempo_meses_seror</t>
+  </si>
+  <si>
+    <t>tasa_per_capita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,43 +130,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,23 +148,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,98 +497,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319D356-40ED-415E-A74C-4F0ECB797303}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40156000</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2/F2*100000</f>
+        <v>3.2373742404621974E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <f>1/E2</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="I2" s="7">
+        <f>(H2*12)/1</f>
+        <v>9.2307692307692299</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4152000</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G4" si="0">E3/F3*100000</f>
+        <v>2.6493256262042391E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H4" si="1">1/E3</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I4" si="2">(H3*12)/1</f>
+        <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>2002</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.3</v>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>287625193</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4767469065201113E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SEROFOI/Tabla resumen FOI/VPH18.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C419F-BB7F-4736-A511-6391C4F5FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8DB8A-4BD1-4D25-B127-AAEE71025719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A89FB97C-CAE2-47B6-9299-C28EF3FF468C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>País</t>
   </si>
@@ -74,21 +74,14 @@
     <t>Tiempo</t>
   </si>
   <si>
-    <t>Poblacion_ por_ millon</t>
-  </si>
-  <si>
     <t>tiempo_meses_seror</t>
-  </si>
-  <si>
-    <t>tasa_per_capita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -148,14 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -497,23 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319D356-40ED-415E-A74C-4F0ECB797303}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,115 +519,88 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2002</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>22</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1.3</v>
       </c>
-      <c r="F2" s="3">
-        <v>40156000</v>
-      </c>
-      <c r="G2" s="4">
-        <f>E2/F2*100000</f>
-        <v>3.2373742404621974E-3</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F2" s="2">
         <f>1/E2</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="I2" s="7">
-        <f>(H2*12)/1</f>
+      <c r="G2" s="5">
+        <f>(F2*12)/1</f>
         <v>9.2307692307692299</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2004</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F3" s="3">
-        <v>4152000</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G4" si="0">E3/F3*100000</f>
-        <v>2.6493256262042391E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="1">1/E3</f>
+      <c r="F3" s="2">
+        <f>1/E3</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I4" si="2">(H3*12)/1</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G4" si="0">(F3*12)/1</f>
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2002</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>35</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>287625193</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="2">
+        <f>1/E4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>3.4767469065201113E-4</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -646,8 +608,6 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEROFOI/Tabla resumen FOI/VPH18.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8DB8A-4BD1-4D25-B127-AAEE71025719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B36F72-4ADF-4345-94EB-CC3952FF5FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A89FB97C-CAE2-47B6-9299-C28EF3FF468C}"/>
   </bookViews>
@@ -50,40 +50,37 @@
     <t>Seroreversión</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>0.32</t>
   </si>
   <si>
-    <t>Costa Rica </t>
-  </si>
-  <si>
     <t>0.58</t>
   </si>
   <si>
-    <t>Estado Unidos</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>FOI_max</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>tiempo_meses_seror</t>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>FOI máxima</t>
+  </si>
+  <si>
+    <t>Estado Unidos(2003)</t>
+  </si>
+  <si>
+    <t>Colombia(2002)</t>
+  </si>
+  <si>
+    <t>Costa Rica (2004)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,11 +134,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,10 +162,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319D356-40ED-415E-A74C-4F0ECB797303}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +513,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -518,96 +529,64 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="F2" s="2">
-        <f>1/E2</f>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="G2" s="5">
-        <f>(F2*12)/1</f>
-        <v>9.2307692307692299</v>
+    <row r="4" spans="1:5" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <f>1/E3</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G4" si="0">(F3*12)/1</f>
-        <v>10.909090909090908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <f>1/E4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEROFOI/Tabla resumen FOI/VPH18.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B36F72-4ADF-4345-94EB-CC3952FF5FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227772F2-D230-4ECB-897A-FD90D8E667AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A89FB97C-CAE2-47B6-9299-C28EF3FF468C}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Seroreversión</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
     <t>0.58</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Costa Rica (2004)</t>
+  </si>
+  <si>
+    <t>0.22</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -532,47 +532,47 @@
     </row>
     <row r="2" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>2002</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>2004</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>2003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
